--- a/example_reports/EJEMPLO-DATOS-FICHAS-RRHH.xlsx
+++ b/example_reports/EJEMPLO-DATOS-FICHAS-RRHH.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\agilsoft sotfware\Agil\example_reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Esteban Suarez Prado\Agil - copia\example_reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,34 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
-  <si>
-    <t>Cochabamba</t>
-  </si>
-  <si>
-    <t>Pardo</t>
-  </si>
-  <si>
-    <t>Siles</t>
-  </si>
-  <si>
-    <t>Indefinido</t>
-  </si>
-  <si>
-    <t>Plazo Fijo</t>
-  </si>
-  <si>
-    <t>Jose1</t>
-  </si>
-  <si>
-    <t>Antonio1</t>
-  </si>
-  <si>
-    <t>Antonio2</t>
-  </si>
-  <si>
-    <t>Jose2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>CAMPO</t>
   </si>
@@ -80,15 +53,9 @@
     <t>ESS-TALL</t>
   </si>
   <si>
-    <t>ESS-CHOF</t>
-  </si>
-  <si>
     <t>40641703</t>
   </si>
   <si>
-    <t>35552611</t>
-  </si>
-  <si>
     <t>AFP_APORTE</t>
   </si>
   <si>
@@ -158,20 +125,41 @@
     <t>SOLTERO</t>
   </si>
   <si>
-    <t>CASADO</t>
-  </si>
-  <si>
     <t>NACIONALIDAD</t>
   </si>
   <si>
-    <t>BOLIVINO</t>
+    <t>Dirección(direccion del personal)</t>
+  </si>
+  <si>
+    <t>Residencia(Ciudad recidencia del persona)</t>
+  </si>
+  <si>
+    <t>Email(Correo Electronico)</t>
+  </si>
+  <si>
+    <t>VELASCO</t>
+  </si>
+  <si>
+    <t>SALVADOR</t>
+  </si>
+  <si>
+    <t>ROSANGELA</t>
+  </si>
+  <si>
+    <t>BOLIVIANA</t>
+  </si>
+  <si>
+    <t>ANDRES IBAÑEZ</t>
+  </si>
+  <si>
+    <t>COTOCA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,7 +233,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -259,7 +247,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="top"/>
     </xf>
@@ -315,7 +302,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -577,13 +564,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
@@ -600,254 +587,200 @@
     <col min="20" max="20" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="25.140625" customWidth="1"/>
+    <col min="25" max="25" width="35.85546875" customWidth="1"/>
+    <col min="26" max="26" width="36.28515625" customWidth="1"/>
+    <col min="27" max="27" width="41.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="V1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="W1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="X1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="Y1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
+      <c r="A2" s="4">
+        <v>6303589</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" s="6" t="s">
+      <c r="G2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="12" t="s">
+      <c r="R2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="V1" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="W1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="X1" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>45479801</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="8" t="s">
+      <c r="T2" s="12">
+        <v>50000</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="V2" s="10">
         <v>0</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="9">
-        <v>36946</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="T2" s="13">
-        <v>50000</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="V2" s="11">
+      <c r="W2" s="10">
         <v>0</v>
       </c>
-      <c r="W2" s="11">
+      <c r="X2" s="10">
         <v>0</v>
       </c>
-      <c r="X2" s="11">
+      <c r="Y2" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>58544421</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="Z2" s="10">
         <v>0</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="9">
-        <v>36947</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="S3" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="T3" s="13">
-        <v>10000</v>
-      </c>
-      <c r="U3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="V3" s="11">
+      <c r="AA2" s="10">
         <v>0</v>
       </c>
-      <c r="W3" s="11">
-        <v>0</v>
-      </c>
-      <c r="X3" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:27">
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:27">
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+    <row r="6" spans="1:27">
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27">
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="J8" s="1"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="H11" s="2"/>
+    <row r="9" spans="1:27">
+      <c r="C9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="H10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/example_reports/EJEMPLO-DATOS-FICHAS-RRHH.xlsx
+++ b/example_reports/EJEMPLO-DATOS-FICHAS-RRHH.xlsx
@@ -567,7 +567,7 @@
   <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
